--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\aeabd-image-processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3635BEE1-207E-48A0-B2CE-118BB114E0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6672AF49-A31D-45B8-A1F4-52A4F4D17844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{562FBFB6-5F05-48DA-83BF-F287BBD62124}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>total params</t>
-  </si>
-  <si>
-    <t>trainable params</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>non trainable params</t>
   </si>
@@ -60,13 +54,82 @@
   </si>
   <si>
     <t>model size (MB)</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>train_acc</t>
+  </si>
+  <si>
+    <t>Total params</t>
+  </si>
+  <si>
+    <t>Trainable params</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>n.d</t>
+  </si>
+  <si>
+    <t>1h43m18s</t>
+  </si>
+  <si>
+    <t>1h45m24s</t>
+  </si>
+  <si>
+    <t>1h24m12s</t>
+  </si>
+  <si>
+    <t>55m8s</t>
+  </si>
+  <si>
+    <t>41m50s</t>
+  </si>
+  <si>
+    <t>41m25s</t>
+  </si>
+  <si>
+    <t>48m27s</t>
+  </si>
+  <si>
+    <t>38m19s</t>
+  </si>
+  <si>
+    <t>10m59s</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Iterations per epoch</t>
+  </si>
+  <si>
+    <t>Avg Prediction time</t>
+  </si>
+  <si>
+    <t>Validation iterations</t>
+  </si>
+  <si>
+    <t>Training cycle</t>
+  </si>
+  <si>
+    <t>loss_diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,10 +174,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56823BBF-A450-4AA9-B615-B11EF2BCDB54}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M12" sqref="M12:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,76 +515,240 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>23608202</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7047754</v>
+      </c>
+      <c r="D2" s="4">
+        <v>21823274</v>
+      </c>
+      <c r="E2" s="4">
+        <v>727626</v>
+      </c>
+      <c r="G2" s="6">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.78578599999999998</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.82106900000000005</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.82510099999999997</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9.9797999999999998E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>23555082</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6964106</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21788842</v>
+      </c>
+      <c r="E3" s="4">
+        <v>727626</v>
+      </c>
+      <c r="G3" s="6">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.80241899999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.82258100000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.81602799999999998</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9.9293999999999993E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>64</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.8599</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="S3" s="3">
+        <v>32</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>53120</v>
+      </c>
+      <c r="C4" s="4">
+        <v>83648</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34432</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>256</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.49218800000000001</v>
+      </c>
+      <c r="M4" s="6">
+        <v>256</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>23608202</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7047754</v>
-      </c>
-      <c r="D2" s="1">
-        <v>21823274</v>
-      </c>
-      <c r="E2" s="1">
-        <v>727626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23555082</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6964106</v>
-      </c>
-      <c r="D3" s="1">
-        <v>21788842</v>
-      </c>
-      <c r="E3" s="1">
-        <v>727626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>53120</v>
-      </c>
-      <c r="C4" s="1">
-        <v>83648</v>
-      </c>
-      <c r="D4" s="1">
-        <v>34432</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
       <c r="B5" s="2">
         <f>(B4/B2)</f>
@@ -517,21 +762,607 @@
         <f>(D4/D2)</f>
         <v>1.5777650961079442E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>(E4/E2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <v>256</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>90.4</v>
+      </c>
+      <c r="C6" s="4">
         <v>27.7</v>
       </c>
+      <c r="D6" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="5">
+        <f>(3.78289532661437+4.050062417984+4.27838945388793)/3</f>
+        <v>4.0371157328287701</v>
+      </c>
+      <c r="U6" s="5">
+        <f>(6.74591541290283+7.27121329307556+7.60296535491943)/3</f>
+        <v>7.2066980202992736</v>
+      </c>
+      <c r="V6" s="5">
+        <f>(5.21094417572021+5.66816568374633+5.8867642879486)/3</f>
+        <v>5.5886247158050466</v>
+      </c>
+      <c r="W6" s="5">
+        <f>(3.87459564208984+3.97634172439575+3.97029757499694)/3</f>
+        <v>3.9404116471608432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G7" s="6">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.8357</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.1076</v>
+      </c>
+      <c r="M7" s="6">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.4713</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G8" s="6">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.9214</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.9264</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.1047</v>
+      </c>
+      <c r="M8" s="6">
+        <v>64</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.3029999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
+        <v>256</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="M9" s="6">
+        <v>256</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="M13" s="6">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <f>(N2-N7)</f>
+        <v>0.19670000000000004</v>
+      </c>
+      <c r="O13">
+        <f>(O2-O7)</f>
+        <v>0.23750000000000004</v>
+      </c>
+      <c r="P13">
+        <f>(P2-P7)</f>
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="Q13">
+        <f>(Q2-Q7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7">
+        <v>281</v>
+      </c>
+      <c r="M14" s="6">
+        <v>64</v>
+      </c>
+      <c r="N14">
+        <f>(N3-N8)</f>
+        <v>0.32119999999999999</v>
+      </c>
+      <c r="O14">
+        <f>(O3-O8)</f>
+        <v>0.27449999999999997</v>
+      </c>
+      <c r="P14">
+        <f>(P3-P8)</f>
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="Q14">
+        <f>(Q3-Q8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7">
+        <v>140</v>
+      </c>
+      <c r="M15" s="6">
+        <v>256</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f>(Q4-Q9)</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>256</v>
+      </c>
+      <c r="B16" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007A785AD2BB65B647BF47290916235D7A" ma:contentTypeVersion="11" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="cb4a2beafcaee889e77c83425e68ff30">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be1c7aa1-67fa-4aec-93dd-abd407ad6f2e" xmlns:ns4="ea730bd6-9468-45f3-b092-1f8d95cd2d56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5604b231bf7fd374d792a21c740b2a91" ns3:_="" ns4:_="">
+    <xsd:import namespace="be1c7aa1-67fa-4aec-93dd-abd407ad6f2e"/>
+    <xsd:import namespace="ea730bd6-9468-45f3-b092-1f8d95cd2d56"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be1c7aa1-67fa-4aec-93dd-abd407ad6f2e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash de Sugestão de Partilha" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ea730bd6-9468-45f3-b092-1f8d95cd2d56" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC00939-492D-4546-8CA6-BDE3A47985A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be1c7aa1-67fa-4aec-93dd-abd407ad6f2e"/>
+    <ds:schemaRef ds:uri="ea730bd6-9468-45f3-b092-1f8d95cd2d56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDEF9D08-B166-431C-B242-E7BE1DFBDE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="be1c7aa1-67fa-4aec-93dd-abd407ad6f2e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ea730bd6-9468-45f3-b092-1f8d95cd2d56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A341E8D9-AD42-44A1-9E92-258AD5B0AE98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>